--- a/CodeSystem-v2-0360.xlsx
+++ b/CodeSystem-v2-0360.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,13 +67,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Orders and Observations</t>
+    <t>FHIR Infrastructure</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Orders and Observations (http://www.hl7.org/Special/committees/orders)</t>
+    <t>FHIR Infrastructure (http://www.hl7.org/Special/committees/fiwg)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -109,7 +109,7 @@
     <t>Value Set (all codes)</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0360|2.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0360</t>
   </si>
   <si>
     <t>Hierarchy</t>

--- a/CodeSystem-v2-0360.xlsx
+++ b/CodeSystem-v2-0360.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-snapshot-3</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,13 +67,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>FHIR Infrastructure</t>
+    <t>Orders and Observations</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>FHIR Infrastructure (http://www.hl7.org/Special/committees/fiwg)</t>
+    <t>Orders and Observations (http://www.hl7.org/Special/committees/orders)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -109,7 +109,7 @@
     <t>Value Set (all codes)</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0360</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0360|2.0.0</t>
   </si>
   <si>
     <t>Hierarchy</t>
